--- a/biology/Zoologie/Alapi_paludicole/Alapi_paludicole.xlsx
+++ b/biology/Zoologie/Alapi_paludicole/Alapi_paludicole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sclateria naevia, Sclateria
 L’Alapi paludicole (Sclateria naevia), unique représentant du genre Sclateria, est une espèce de passereaux de la famille des Thamnophilidae.
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau se rencontre en Bolivie, au Brésil, en Colombie, en Équateur, au Guyana, en Guyane, au Pérou, au Suriname, à Trinité-et-Tobago et au Venezuela[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau se rencontre en Bolivie, au Brésil, en Colombie, en Équateur, au Guyana, en Guyane, au Pérou, au Suriname, à Trinité-et-Tobago et au Venezuela.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (18 avril 2024)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (18 avril 2024) :
 Sclateria naevia argentata (Des Murs, 1856)
 Sclateria naevia diaphora Todd, 1913
 Sclateria naevia naevia (Gmelin, 1788)
@@ -577,11 +593,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Sclateria naevia (Gmelin, 1788)[2].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Alapi paludicole[2],[3].
-Sclateria naevia a pour synonyme[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Sclateria naevia (Gmelin, 1788).
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Alapi paludicole,.
+Sclateria naevia a pour synonyme :
 Sitta naevia Gmelin, 1788</t>
         </is>
       </c>
